--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_359__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_359__Reeval_LHS_Modell_1.1.xlsx
@@ -5876,10 +5876,10 @@
                   <c:v>4.616817951202393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.15890407562256</c:v>
+                  <c:v>15.15889263153076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.41129779815674</c:v>
+                  <c:v>13.41130256652832</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8.746853828430176</c:v>
@@ -5888,100 +5888,100 @@
                   <c:v>42.07357788085938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.81399917602539</c:v>
+                  <c:v>17.81399726867676</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32.76660537719727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.11661529541016</c:v>
+                  <c:v>10.11662006378174</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.13757705688477</c:v>
+                  <c:v>11.13756656646729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1162761077284813</c:v>
+                  <c:v>0.116275817155838</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>29.9959545135498</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.417267799377441</c:v>
+                  <c:v>3.417277097702026</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.17376518249512</c:v>
+                  <c:v>27.17377090454102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.1757230758667</c:v>
+                  <c:v>11.17570972442627</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.365092277526855</c:v>
+                  <c:v>8.365097045898438</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>31.41864395141602</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.35043716430664</c:v>
+                  <c:v>25.35043525695801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.18769645690918</c:v>
+                  <c:v>18.18768882751465</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.83451557159424</c:v>
+                  <c:v>12.83450889587402</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.79698753356934</c:v>
+                  <c:v>19.79697418212891</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.33494567871094</c:v>
+                  <c:v>27.33495140075684</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.21087265014648</c:v>
+                  <c:v>11.21086502075195</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.09349632263184</c:v>
+                  <c:v>19.09349060058594</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.47545051574707</c:v>
+                  <c:v>25.4754638671875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.784666061401367</c:v>
+                  <c:v>5.784657001495361</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.55405426025391</c:v>
+                  <c:v>11.55406093597412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.97572326660156</c:v>
+                  <c:v>19.97571754455566</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>18.25492286682129</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.56514549255371</c:v>
+                  <c:v>22.56515502929688</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.8017520904541</c:v>
+                  <c:v>20.80174446105957</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.55986595153809</c:v>
+                  <c:v>22.55985832214355</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.53248882293701</c:v>
+                  <c:v>10.53249359130859</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.11005973815918</c:v>
+                  <c:v>21.11006736755371</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.48745155334473</c:v>
+                  <c:v>13.48746299743652</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.70320987701416</c:v>
+                  <c:v>10.70320510864258</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>33.94219589233398</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.9249267578125</c:v>
+                  <c:v>9.924921989440918</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.970470428466797</c:v>
@@ -5990,13 +5990,13 @@
                   <c:v>13.49778842926025</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.86514663696289</c:v>
+                  <c:v>17.86514091491699</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23.95591926574707</c:v>
+                  <c:v>23.95592498779297</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>29.17701721191406</c:v>
+                  <c:v>29.17701530456543</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.03196508809924126</c:v>
@@ -6005,166 +6005,166 @@
                   <c:v>20.40016555786133</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25.83914566040039</c:v>
+                  <c:v>25.83913803100586</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15.67653369903564</c:v>
+                  <c:v>15.67652893066406</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.86048412322998</c:v>
+                  <c:v>14.86049747467041</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>15.60394668579102</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20.79736328125</c:v>
+                  <c:v>20.79736137390137</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19.53674125671387</c:v>
+                  <c:v>19.5367488861084</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14.77990818023682</c:v>
+                  <c:v>14.77989864349365</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.98693180084229</c:v>
+                  <c:v>15.98692989349365</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>24.17241287231445</c:v>
+                  <c:v>24.17241477966309</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.67560195922852</c:v>
+                  <c:v>17.67560577392578</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>20.97846412658691</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20.45979499816895</c:v>
+                  <c:v>20.45978927612305</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.905282497406006</c:v>
+                  <c:v>6.905284881591797</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>15.7269811630249</c:v>
+                  <c:v>15.72698593139648</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.883548736572266</c:v>
+                  <c:v>5.883553504943848</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20.0986499786377</c:v>
+                  <c:v>20.0986385345459</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>24.4544506072998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>12.822096824646</c:v>
+                  <c:v>12.82209205627441</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>31.76641464233398</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20.72795486450195</c:v>
+                  <c:v>20.72795104980469</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.14795970916748</c:v>
+                  <c:v>12.1479549407959</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>18.41873931884766</c:v>
+                  <c:v>18.41872596740723</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15.57729053497314</c:v>
+                  <c:v>15.57729530334473</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.2255744934082</c:v>
+                  <c:v>17.2255802154541</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.584026336669922</c:v>
+                  <c:v>9.584025382995605</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.45483875274658</c:v>
+                  <c:v>14.45483589172363</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>19.49176025390625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>30.57731056213379</c:v>
+                  <c:v>30.57730102539062</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14.84432220458984</c:v>
+                  <c:v>14.84433078765869</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>11.49042129516602</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21.7130241394043</c:v>
+                  <c:v>21.71302032470703</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>19.97649765014648</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.185818672180176</c:v>
+                  <c:v>9.185825347900391</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.744755506515503</c:v>
+                  <c:v>2.74475359916687</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>23.73662376403809</c:v>
+                  <c:v>23.73663711547852</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.798694610595703</c:v>
+                  <c:v>-3.7986900806427</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>16.08630561828613</c:v>
+                  <c:v>16.08629989624023</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>18.92825126647949</c:v>
+                  <c:v>18.92824745178223</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>18.71237945556641</c:v>
+                  <c:v>18.71238136291504</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>24.31129264831543</c:v>
+                  <c:v>24.31130027770996</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14.7870922088623</c:v>
+                  <c:v>14.78708744049072</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.9647549986839294</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.330851554870605</c:v>
+                  <c:v>6.330844879150391</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>29.38665008544922</c:v>
+                  <c:v>29.38666343688965</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>14.9607458114624</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.175844192504883</c:v>
+                  <c:v>9.175863265991211</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>19.10194969177246</c:v>
+                  <c:v>19.1019458770752</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.810011863708496</c:v>
+                  <c:v>8.810009002685547</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>16.80106735229492</c:v>
+                  <c:v>16.80107307434082</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>15.82884788513184</c:v>
+                  <c:v>15.82885074615479</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5634886026382446</c:v>
+                  <c:v>0.5634978413581848</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>24.60977172851562</c:v>
+                  <c:v>24.60975646972656</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15.93938064575195</c:v>
+                  <c:v>15.93938541412354</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>27.93926048278809</c:v>
+                  <c:v>27.93928146362305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>15.15890407562256</v>
+        <v>15.15889263153076</v>
       </c>
       <c r="G3">
         <v>84</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.41129779815674</v>
+        <v>13.41130256652832</v>
       </c>
       <c r="G4">
         <v>84</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.81399917602539</v>
+        <v>17.81399726867676</v>
       </c>
       <c r="G7">
         <v>84</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10.11661529541016</v>
+        <v>10.11662006378174</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>11.13757705688477</v>
+        <v>11.13756656646729</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1162761077284813</v>
+        <v>0.116275817155838</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>3.417267799377441</v>
+        <v>3.417277097702026</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.17376518249512</v>
+        <v>27.17377090454102</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.1757230758667</v>
+        <v>11.17570972442627</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>8.365092277526855</v>
+        <v>8.365097045898438</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.35043716430664</v>
+        <v>25.35043525695801</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>18.18769645690918</v>
+        <v>18.18768882751465</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>12.83451557159424</v>
+        <v>12.83450889587402</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.79698753356934</v>
+        <v>19.79697418212891</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.33494567871094</v>
+        <v>27.33495140075684</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.21087265014648</v>
+        <v>11.21086502075195</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.09349632263184</v>
+        <v>19.09349060058594</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.47545051574707</v>
+        <v>25.4754638671875</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>5.784666061401367</v>
+        <v>5.784657001495361</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>11.55405426025391</v>
+        <v>11.55406093597412</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>19.97572326660156</v>
+        <v>19.97571754455566</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>22.56514549255371</v>
+        <v>22.56515502929688</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>20.8017520904541</v>
+        <v>20.80174446105957</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>22.55986595153809</v>
+        <v>22.55985832214355</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>10.53248882293701</v>
+        <v>10.53249359130859</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>21.11005973815918</v>
+        <v>21.11006736755371</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>13.48745155334473</v>
+        <v>13.48746299743652</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>10.70320987701416</v>
+        <v>10.70320510864258</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>9.9249267578125</v>
+        <v>9.924921989440918</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>17.86514663696289</v>
+        <v>17.86514091491699</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>23.95591926574707</v>
+        <v>23.95592498779297</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>29.17701721191406</v>
+        <v>29.17701530456543</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>25.83914566040039</v>
+        <v>25.83913803100586</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>15.67653369903564</v>
+        <v>15.67652893066406</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>14.86048412322998</v>
+        <v>14.86049747467041</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>20.79736328125</v>
+        <v>20.79736137390137</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>19.53674125671387</v>
+        <v>19.5367488861084</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>14.77990818023682</v>
+        <v>14.77989864349365</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>15.98693180084229</v>
+        <v>15.98692989349365</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>24.17241287231445</v>
+        <v>24.17241477966309</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>17.67560195922852</v>
+        <v>17.67560577392578</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>20.45979499816895</v>
+        <v>20.45978927612305</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>6.905282497406006</v>
+        <v>6.905284881591797</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>15.7269811630249</v>
+        <v>15.72698593139648</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>5.883548736572266</v>
+        <v>5.883553504943848</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>20.0986499786377</v>
+        <v>20.0986385345459</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>12.822096824646</v>
+        <v>12.82209205627441</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>20.72795486450195</v>
+        <v>20.72795104980469</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>12.14795970916748</v>
+        <v>12.1479549407959</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>18.41873931884766</v>
+        <v>18.41872596740723</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>15.57729053497314</v>
+        <v>15.57729530334473</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>17.2255744934082</v>
+        <v>17.2255802154541</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>9.584026336669922</v>
+        <v>9.584025382995605</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>14.45483875274658</v>
+        <v>14.45483589172363</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>30.57731056213379</v>
+        <v>30.57730102539062</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>14.84432220458984</v>
+        <v>14.84433078765869</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>21.7130241394043</v>
+        <v>21.71302032470703</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>9.185818672180176</v>
+        <v>9.185825347900391</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2.744755506515503</v>
+        <v>2.74475359916687</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>23.73662376403809</v>
+        <v>23.73663711547852</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-3.798694610595703</v>
+        <v>-3.7986900806427</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>16.08630561828613</v>
+        <v>16.08629989624023</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>18.92825126647949</v>
+        <v>18.92824745178223</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>18.71237945556641</v>
+        <v>18.71238136291504</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>24.31129264831543</v>
+        <v>24.31130027770996</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>14.7870922088623</v>
+        <v>14.78708744049072</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>6.330851554870605</v>
+        <v>6.330844879150391</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>29.38665008544922</v>
+        <v>29.38666343688965</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>9.175844192504883</v>
+        <v>9.175863265991211</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>19.10194969177246</v>
+        <v>19.1019458770752</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>8.810011863708496</v>
+        <v>8.810009002685547</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>16.80106735229492</v>
+        <v>16.80107307434082</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>15.82884788513184</v>
+        <v>15.82885074615479</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>0.5634886026382446</v>
+        <v>0.5634978413581848</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>24.60977172851562</v>
+        <v>24.60975646972656</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>15.93938064575195</v>
+        <v>15.93938541412354</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>27.93926048278809</v>
+        <v>27.93928146362305</v>
       </c>
     </row>
     <row r="100" spans="1:6">
